--- a/frontend/public/sample_interview_data.xlsx
+++ b/frontend/public/sample_interview_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojuyoung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojuyoung/Library/Mobile Documents/com~apple~CloudDocs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741E52BF-5FDA-A940-871E-EFE865848EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FBF99-6B81-A943-8A23-904C784AEB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="1160" windowWidth="27700" windowHeight="16700" xr2:uid="{315BB98E-9138-B143-A3F6-138497F28D78}"/>
+    <workbookView xWindow="1700" yWindow="1160" windowWidth="27700" windowHeight="16700" xr2:uid="{315BB98E-9138-B143-A3F6-138497F28D78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -248,6 +248,45 @@
   </si>
   <si>
     <t>개인별 업무 집중도 향상을 위해 칸막이 설치 또는 방음 대책 마련을 검토하고, 필요 시 사무실 환경 개선 공사를 고려하겠습니다.</t>
+  </si>
+  <si>
+    <t>4분기</t>
+  </si>
+  <si>
+    <t>경영진 보고 및 투자 유치 설명회 준비 상황을 보고했으며, 주요 투자자들의 긍정적인 반응을 확인했습니다.</t>
+  </si>
+  <si>
+    <t>보고서의 전략적 가치와 투자 유치 가능성을 높이 평가하며, 최종 투자 확정을 위한 추가적인 지원을 약속했습니다.</t>
+  </si>
+  <si>
+    <t>신규 기술 개발 부서로의 이동 희망에 대해 구체적인 논의를 시작하고 싶습니다. 특히, AI 기반 에너지 효율 기술 개발에 관심이 많습니다.</t>
+  </si>
+  <si>
+    <t>신기술 개발 부서로의 이동은 회사 전체의 기술 역량 강화에 도움이 되므로, 해당 팀 리더와 협의하여 포지션 적합성 및 이동 절차를 검토하겠습니다.</t>
+  </si>
+  <si>
+    <t>새로운 협업 툴이 도입되었으나, 활용 교육이 부족합니다. 기능별 활용법 교육을 요청합니다.</t>
+  </si>
+  <si>
+    <t>새로 도입된 협업 툴의 원활한 정착을 위해 기능별 활용 교육 프로그램을 마련하고, 모든 팀원이 참여하도록 지시했습니다.</t>
+  </si>
+  <si>
+    <t>차세대 리더십 프로그램 전사 확대 로드맵을 수립하여 보고드렸으며, 내년도 인재 개발 계획에 포함될 수 있도록 요청했습니다.</t>
+  </si>
+  <si>
+    <t>로드맵의 체계성과 인재 육성 목표 달성 가능성에 만족하며, 다음 분기부터 단계적인 실행을 지시했습니다.</t>
+  </si>
+  <si>
+    <t>ESG 경영 전략팀으로의 이동 희망에 대해 구체적인 논의를 시작하고 싶습니다. 특히, 공급망 ESG 평가 시스템 구축에 기여하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>ESG 경영 전략팀으로의 이동은 회사 전체의 지속 가능성 강화에 도움이 되므로, 해당 팀 리더와 협의하여 포지션 적합성 및 이동 절차를 검토하겠습니다.</t>
+  </si>
+  <si>
+    <t>회의실 스마트 예약 시스템 도입에 대한 진행 상황이 궁금합니다.</t>
+  </si>
+  <si>
+    <t>회의실 스마트 예약 시스템 도입을 위한 예산이 승인되었으며, 다음 분기 내 시스템 구축을 시작할 예정임을 공유했습니다.</t>
   </si>
 </sst>
 </file>
@@ -705,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA914C7C-30AC-894E-B7D3-334601E6584C}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -969,6 +1008,70 @@
         <v>69</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="161" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="177" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
